--- a/Documentation/Planning - Diskuss.xlsx
+++ b/Documentation/Planning - Diskuss.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s2.rpn.ch\home\CPLN\Eleves\ET\ChevreLo\ATELIER\Droz_S\4e_annee\Diskuss\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ATELIER\Droz_S\4e_annee\Diskuss\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -337,6 +337,13 @@
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -547,7 +554,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +621,63 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -662,62 +726,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1135,8 +1145,8 @@
   </sheetPr>
   <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1161,13 +1171,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1175,66 +1185,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="53"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="56"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="48" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1261,13 +1271,13 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="3">
+      <c r="B4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="57">
         <v>1</v>
       </c>
       <c r="I4" s="3">
@@ -1449,187 +1459,191 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="27">
         <v>2</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="27">
         <v>1</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="27">
         <v>2</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="27">
         <v>3</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="27">
         <v>6</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="27">
         <v>3</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="27">
         <v>5</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="27">
         <v>8</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="27">
         <v>8</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="27">
         <v>2</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="30">
         <v>10</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="30">
         <v>2</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="30">
         <v>10</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="30">
         <v>2</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="24">
         <v>12</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="24">
         <v>12</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="24">
+        <v>7</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24">
+        <v>3</v>
+      </c>
+      <c r="E10" s="24">
+        <v>19</v>
+      </c>
+      <c r="F10" s="24">
         <v>4</v>
       </c>
-      <c r="G9" s="41">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="39" t="s">
+      <c r="G10" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="33">
         <v>18</v>
       </c>
-      <c r="C10" s="40">
-        <v>15</v>
-      </c>
-      <c r="D10" s="40">
+      <c r="D11" s="33">
+        <v>5</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="36">
+        <v>23</v>
+      </c>
+      <c r="D12" s="36">
         <v>3</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="49">
-        <v>18</v>
-      </c>
-      <c r="D11" s="49">
-        <v>5</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50">
+    <row r="13" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="36">
+        <v>26</v>
+      </c>
+      <c r="D13" s="36">
+        <v>4</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="52">
-        <v>23</v>
-      </c>
-      <c r="D12" s="52">
-        <v>3</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53">
+    <row r="14" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="39">
+        <v>30</v>
+      </c>
+      <c r="D14" s="39">
+        <v>7</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="52">
-        <v>26</v>
-      </c>
-      <c r="D13" s="52">
-        <v>4</v>
-      </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="55">
-        <v>30</v>
-      </c>
-      <c r="D14" s="55">
-        <v>7</v>
-      </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56">
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7">

--- a/Documentation/Planning - Diskuss.xlsx
+++ b/Documentation/Planning - Diskuss.xlsx
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -344,6 +344,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="42"/>
+      <color theme="7"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="8">
@@ -389,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -496,6 +505,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -570,9 +588,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -594,15 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,6 +684,9 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -726,7 +735,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="2" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="7" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="10" xfId="13" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1145,8 +1163,8 @@
   </sheetPr>
   <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1160,124 +1178,125 @@
     <col min="35" max="42" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="55">
         <v>1</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="49" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="49" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="41" t="s">
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="54" t="s">
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="41" t="s">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="57">
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="37">
         <v>1</v>
       </c>
       <c r="I4" s="3">
@@ -1459,335 +1478,338 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="23">
         <v>1</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="23">
         <v>2</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="23">
         <v>3</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="23">
         <v>6</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="23">
         <v>3</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="23">
         <v>5</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <v>8</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="23">
         <v>8</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="23">
         <v>2</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="26">
         <v>10</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="26">
         <v>2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="26">
         <v>10</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="26">
         <v>2</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>12</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>3</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>12</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>7</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="20">
         <v>15</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="20">
         <v>3</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>19</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
+        <v>7</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="29">
+        <v>18</v>
+      </c>
+      <c r="D11" s="29">
+        <v>5</v>
+      </c>
+      <c r="E11" s="29">
+        <v>26</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="32">
+        <v>23</v>
+      </c>
+      <c r="D12" s="32">
+        <v>3</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="32">
+        <v>26</v>
+      </c>
+      <c r="D13" s="32">
         <v>4</v>
       </c>
-      <c r="G10" s="25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="33">
-        <v>18</v>
-      </c>
-      <c r="D11" s="33">
-        <v>5</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="36">
-        <v>23</v>
-      </c>
-      <c r="D12" s="36">
-        <v>3</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37">
+    <row r="14" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="35">
+        <v>30</v>
+      </c>
+      <c r="D14" s="35">
+        <v>7</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="36">
-        <v>26</v>
-      </c>
-      <c r="D13" s="36">
-        <v>4</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="39">
-        <v>30</v>
-      </c>
-      <c r="D14" s="39">
-        <v>7</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -1859,7 +1881,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
